--- a/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Tokens (TBNG).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Tokens (TBNG).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,252 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Enchantment Creature — Bird</t>
+          <t>('Cat Soldier', ['Token Creature — Cat Soldier', 'Vigilance', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Centaur', ['Token Enchantment Creature — Centaur', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Elemental', ['Token Enchantment Creature — Elemental', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>('Gold', ['Token Artifact — Gold', 'Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Bird</t>
+          <t>('Kiora, the Crashing Wave Emblem', ['Emblem — Kiora', 'At the beginning of your end step, create a 9/9 blue Kraken creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Kraken', ['Token Creature — Kraken', '9/9'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Soldier', ['Token Enchantment Creature — Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cat Soldier</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Token Creature — Cat Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Centaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Token Enchantment Creature — Centaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Token Enchantment Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Artifact — Gold</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Kiora, the Crashing Wave Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Emblem — Kiora</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, create a 9/9 blue Kraken creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Token Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>9/9</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Token Enchantment Creature — Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Token Enchantment Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Enchantment Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
